--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="18285" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:H31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>产品</t>
   </si>
@@ -94,6 +95,9 @@
     <t>胡健</t>
   </si>
   <si>
+    <t>改密 主页 注册</t>
+  </si>
+  <si>
     <t>肖祥东</t>
   </si>
   <si>
@@ -159,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,20 +178,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,24 +236,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +257,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -232,104 +297,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -341,25 +343,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +439,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,145 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,24 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,8 +570,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,148 +637,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,7 +867,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1147,7 +1149,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1249,10 +1251,10 @@
     </row>
     <row r="8" customHeight="1" spans="2:8">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>43027</v>
@@ -1266,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
         <v>43027</v>
@@ -1280,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3">
         <v>43027</v>
@@ -1291,31 +1293,31 @@
     </row>
     <row r="11" customHeight="1" spans="2:8">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="2:8">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1324,40 +1326,40 @@
         <v>43028</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3">
         <v>43028</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3">
         <v>43028</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1366,7 +1368,7 @@
         <v>43028</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="7:8">
@@ -1375,12 +1377,12 @@
     </row>
     <row r="20" customHeight="1" spans="2:2">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1389,21 +1391,21 @@
         <v>43027</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3">
         <v>43027</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="7:8">
@@ -1412,12 +1414,12 @@
     </row>
     <row r="24" customHeight="1" spans="2:2">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1431,7 +1433,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="3">
         <v>43028</v>
@@ -1442,7 +1444,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1456,7 +1458,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>产品</t>
   </si>
@@ -75,7 +75,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>提现</t>
+    <t>借贷出借</t>
   </si>
   <si>
     <t>龙荣</t>
@@ -130,13 +130,10 @@
     <t>理财管理模块</t>
   </si>
   <si>
-    <t>充值提现</t>
+    <t>风险测评</t>
   </si>
   <si>
     <t xml:space="preserve">                             完成</t>
-  </si>
-  <si>
-    <t>风险测评</t>
   </si>
   <si>
     <t>角色管理</t>
@@ -159,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,15 +171,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -191,28 +195,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,38 +207,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,7 +238,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -284,52 +298,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -341,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,15 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,6 +550,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,21 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,148 +630,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,7 +1142,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1380,21 +1375,21 @@
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="3">
-        <v>43027</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>43028</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1412,12 +1407,12 @@
     </row>
     <row r="24" customHeight="1" spans="2:2">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1431,7 +1426,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="3">
         <v>43028</v>
@@ -1442,7 +1437,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1456,7 +1451,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>产品</t>
   </si>
@@ -75,7 +75,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>借贷出借</t>
+    <t>提现</t>
   </si>
   <si>
     <t>龙荣</t>
@@ -130,10 +130,13 @@
     <t>理财管理模块</t>
   </si>
   <si>
+    <t>充值提现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             完成</t>
+  </si>
+  <si>
     <t>风险测评</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             完成</t>
   </si>
   <si>
     <t>角色管理</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,13 +174,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,16 +202,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,18 +225,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,27 +276,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,64 +325,11 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -336,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +532,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,30 +564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +603,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,148 +635,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1147,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1375,21 +1380,21 @@
     </row>
     <row r="21" customHeight="1" spans="3:8">
       <c r="C21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="3">
-        <v>43028</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
+        <v>43027</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:8">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1407,12 +1412,12 @@
     </row>
     <row r="24" customHeight="1" spans="2:2">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:8">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1426,7 +1431,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:8">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3">
         <v>43028</v>
@@ -1437,7 +1442,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:8">
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1451,7 +1456,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="17775" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:H31"/>
 </workbook>
 </file>
 
@@ -115,10 +116,10 @@
     <t>查询基本信息</t>
   </si>
   <si>
+    <t>用户修改密码</t>
+  </si>
+  <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>用户修改密码</t>
   </si>
   <si>
     <t>支付单</t>
@@ -159,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,45 +175,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,34 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -268,6 +273,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -276,60 +318,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -341,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,74 +531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,151 +563,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1324,12 +1323,12 @@
         <v>43028</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1338,7 +1337,7 @@
         <v>43028</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
@@ -1352,7 +1351,7 @@
         <v>43028</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
@@ -1366,7 +1365,7 @@
         <v>43028</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="7:8">

--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14025" windowHeight="3315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>产品</t>
   </si>
@@ -157,14 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,151 +172,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -329,204 +179,23 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,253 +203,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,58 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1138,37 +521,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="15.775" customWidth="1"/>
-    <col min="8" max="8" width="29.8833333333333" customWidth="1"/>
+    <col min="1" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="2:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1183,12 +566,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:8">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:8">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:8">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:8">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:8">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:8">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:8">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1289,31 +672,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:8">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:8">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:8">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:8">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1369,16 +752,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="7:8">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="2:2">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:8">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:8">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -1406,16 +789,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="7:8">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" customHeight="1" spans="2:2">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:8">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:8">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:8">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1463,40 +846,34 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17775" windowHeight="8055"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>结束</t>
   </si>
   <si>
-    <t>…</t>
+    <t>资金流水</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -95,18 +95,24 @@
     <t>胡健</t>
   </si>
   <si>
+    <t>密码修改</t>
+  </si>
+  <si>
     <t>肖祥东</t>
   </si>
   <si>
+    <t>支付单</t>
+  </si>
+  <si>
     <t>潘文飞</t>
   </si>
   <si>
+    <t>投资风险测评</t>
+  </si>
+  <si>
     <t>马龙贵</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>后台</t>
   </si>
   <si>
@@ -119,13 +125,7 @@
     <t>用户修改密码</t>
   </si>
   <si>
-    <t>支付单</t>
-  </si>
-  <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>资金流水</t>
   </si>
   <si>
     <t>理财管理模块</t>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,53 +171,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +201,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,69 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,25 +337,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +427,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,145 +493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,50 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,20 +557,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,16 +608,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="8" customHeight="1" spans="2:8">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>43027</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:8">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3">
         <v>43027</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="10" customHeight="1" spans="2:8">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3">
         <v>43027</v>
@@ -1285,33 +1285,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" customHeight="1" spans="7:8">
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
+    <row r="12" customHeight="1" spans="7:8">
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1325,10 +1319,10 @@
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3">
         <v>43028</v>
@@ -1339,21 +1333,21 @@
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3">
         <v>43028</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1362,7 +1356,7 @@
         <v>43028</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="7:8">
@@ -1393,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3">
         <v>43027</v>

--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="17775" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17772" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:H31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>产品</t>
   </si>
@@ -155,163 +154,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,8 +176,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,192 +192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -530,253 +205,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,58 +225,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1134,37 +528,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.775" customWidth="1"/>
-    <col min="8" max="8" width="29.8833333333333" customWidth="1"/>
+    <col min="1" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="2:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1179,12 +573,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:8">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:8">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:8">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:8">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:8">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:8">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:8">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1285,31 +679,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:8">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:8">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -1337,44 +731,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:8">
-      <c r="C17" t="s">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="9">
         <v>43028</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" t="s">
+      <c r="I17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="9">
         <v>43028</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="7:8">
+      <c r="I18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="2:2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:8">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -1388,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:8">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -1402,16 +806,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="7:8">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" customHeight="1" spans="2:2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:8">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:8">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:8">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1459,40 +863,34 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
+++ b/document/马龙贵-宜人贷-理财精灵开发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17775" windowHeight="8055"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>结束</t>
   </si>
   <si>
-    <t>…</t>
+    <t>资金流水</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -95,18 +95,24 @@
     <t>胡健</t>
   </si>
   <si>
+    <t>密码修改</t>
+  </si>
+  <si>
     <t>肖祥东</t>
   </si>
   <si>
+    <t>支付单</t>
+  </si>
+  <si>
     <t>潘文飞</t>
   </si>
   <si>
+    <t>投资风险测评</t>
+  </si>
+  <si>
     <t>马龙贵</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>后台</t>
   </si>
   <si>
@@ -119,13 +125,7 @@
     <t>用户修改密码</t>
   </si>
   <si>
-    <t>支付单</t>
-  </si>
-  <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>资金流水</t>
   </si>
   <si>
     <t>理财管理模块</t>
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -171,53 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +193,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,8 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,60 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,37 +337,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,145 +499,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,90 +628,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="8" customHeight="1" spans="2:8">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>43027</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:8">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3">
         <v>43027</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="10" customHeight="1" spans="2:8">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3">
         <v>43027</v>
@@ -1285,33 +1285,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" customHeight="1" spans="7:8">
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
+    <row r="12" customHeight="1" spans="7:8">
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:8">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1325,10 +1319,10 @@
     </row>
     <row r="16" customHeight="1" spans="3:8">
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3">
         <v>43028</v>
@@ -1339,21 +1333,21 @@
     </row>
     <row r="17" customHeight="1" spans="3:8">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3">
         <v>43028</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1362,7 +1356,7 @@
         <v>43028</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="7:8">
@@ -1393,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3">
         <v>43027</v>
